--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 09:54:28</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:09:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:09:01</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:48:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:48:44</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:01:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:01:17</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:22:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:22:32</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:34:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:34:26</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:43:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:43:59</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:52:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:52:39</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:01:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:01:30</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:24:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:24:22</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:40:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:40:20</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:49:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:49:50</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:59:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:59:39</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:14:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:14:43</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:28:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:28:28</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:37:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:37:53</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:47:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:47:16</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:56:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:56:08</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:11:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:11:57</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:32:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:32:56</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:46:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:46:03</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:54:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:54:40</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:06:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:06:00</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:21:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:21:18</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:29:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:29:58</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:39:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:39:02</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:48:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:48:01</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:56:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:56:50</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:13:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:13:33</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:33:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:33:40</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:45:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:45:18</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:54:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:54:19</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:03:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:03:47</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:22:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:22:06</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:30:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:30:44</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:40:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:40:34</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:49:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:49:15</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:58:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:58:03</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:14:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:14:56</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:31:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:31:55</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:41:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:41:16</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:50:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:50:36</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:59:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:59:10</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:13:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:13:49</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:25:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:25:01</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:33:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:33:52</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:42:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:42:35</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:51:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:51:33</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 09:00:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 09:00:03</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 09:31:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 09:31:03</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 09:58:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 09:58:29</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 10:19:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 10:19:24</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 10:33:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 10:33:52</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 10:42:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 10:42:35</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 10:51:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 10:51:54</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:00:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:00:47</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:17:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:17:02</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:29:03</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -36500,13 +36500,13 @@
         <v>44</v>
       </c>
       <c r="N386" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O386" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P386" s="0" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="Q386" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:29:03</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:38:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:38:28</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:47:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:47:38</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:55:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:55:59</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:10:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:10:20</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:26:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:26:46</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:36:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:36:17</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:45:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:45:41</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 12:54:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 12:54:27</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:03:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:03:10</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:31:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:31:40</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:49:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:49:55</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 01:58:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 01:58:13</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:13:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:13:21</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:27:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:27:50</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:37:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224610.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:37:28</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:46:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224610.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:46:53</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 02:55:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 02:55:26</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:09:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:09:31</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:30:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:30:44</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:43:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:43:04</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 03:52:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 03:52:23</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:00:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:00:43</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:15:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:15:47</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:24:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:24:35</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:33:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:33:21</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:42:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:42:09</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:51:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:51:05</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 04:59:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 04:59:42</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:18:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:18:06</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:30:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:30:59</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:41:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:41:01</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:49:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:49:18</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 05:58:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 05:58:28</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:13:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221310.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:13:16</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:25:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:25:42</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:34:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224410.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:34:43</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:44:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224410.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:44:14</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 06:52:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 06:52:48</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:02:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222010.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:02:01</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:20:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223210.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:20:16</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:32:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223210.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224110.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:32:14</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:41:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224110.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:41:07</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:49:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:49:47</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 07:58:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 07:58:50</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:15:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:15:46</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:29:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223910.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:29:52</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:39:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223910.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224810.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:39:51</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:48:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-10.xlsx
+++ b/sigbm_download_2022-12-10.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224810.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 08:48:28</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 08:57:32</t>
   </si>
   <si>
     <t>ID Barragem</t>
